--- a/src/main/resources/reports/Excel Assignment.xlsx
+++ b/src/main/resources/reports/Excel Assignment.xlsx
@@ -1,31 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victo\Desktop\AdventureWorks Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/majalarsen/IdeaProjects/ht21-sysb13-db-progassignmt-ht21-sysb13-sql-service/src/main/resources/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F1FCA7C-3C61-4C2E-A8A2-1FC885DE9619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A111316-E2C9-D64A-8C0B-C1F12774A2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{619B49E9-B32A-48F6-AF66-29159BDABD9C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="4" xr2:uid="{619B49E9-B32A-48F6-AF66-29159BDABD9C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Assignment 1" sheetId="2" r:id="rId1"/>
-    <sheet name="Assignment 2" sheetId="3" r:id="rId2"/>
-    <sheet name="Assignment 3" sheetId="6" r:id="rId3"/>
-    <sheet name="Assignment 4" sheetId="10" r:id="rId4"/>
-    <sheet name="Assignment 5" sheetId="12" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId6"/>
+    <sheet name="Products Per Category" sheetId="2" r:id="rId1"/>
+    <sheet name="Highest ListPrice" sheetId="3" r:id="rId2"/>
+    <sheet name="Customer 29922" sheetId="6" r:id="rId3"/>
+    <sheet name="Saddles" sheetId="10" r:id="rId4"/>
+    <sheet name="Tachometers &amp; Accessories" sheetId="12" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'Assignment 1'!$A$1:$B$42</definedName>
-    <definedName name="ExternalData_1" localSheetId="1" hidden="1">'Assignment 2'!$A$1:$K$296</definedName>
-    <definedName name="ExternalData_1" localSheetId="2" hidden="1">'Assignment 3'!$A$1:$C$2</definedName>
-    <definedName name="ExternalData_1" localSheetId="4" hidden="1">'Assignment 5'!$A$1:$C$543</definedName>
-    <definedName name="ExternalData_2" localSheetId="3" hidden="1">'Assignment 4'!$A$1:$B$10</definedName>
+    <definedName name="ExternalData_1" localSheetId="2" hidden="1">'Customer 29922'!$A$1:$C$2</definedName>
+    <definedName name="ExternalData_1" localSheetId="1" hidden="1">'Highest ListPrice'!$A$1:$K$296</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'Products Per Category'!$A$1:$B$42</definedName>
+    <definedName name="ExternalData_1" localSheetId="4" hidden="1">'Tachometers &amp; Accessories'!$A$1:$C$543</definedName>
+    <definedName name="ExternalData_2" localSheetId="3" hidden="1">Saddles!$A$1:$B$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1419,7 +1418,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1718,19 +1717,19 @@
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1738,27 +1737,27 @@
         <v>333</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1766,7 +1765,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1774,7 +1773,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1782,7 +1781,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1790,7 +1789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1798,7 +1797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1806,7 +1805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1814,7 +1813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1822,7 +1821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1830,7 +1829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1838,7 +1837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1846,7 +1845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1854,7 +1853,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1862,7 +1861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1870,7 +1869,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1878,7 +1877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1886,7 +1885,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1894,7 +1893,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1902,7 +1901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1910,7 +1909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1918,7 +1917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1926,7 +1925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1934,7 +1933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1942,7 +1941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1950,7 +1949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1958,7 +1957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1966,7 +1965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1974,7 +1973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1982,7 +1981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1990,7 +1989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1998,7 +1997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2006,7 +2005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2014,7 +2013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2022,7 +2021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2030,7 +2029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2038,7 +2037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2046,7 +2045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2066,25 +2065,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2D5E33-30C4-4480-B2A2-787BD3D59DD8}">
   <dimension ref="A1:K296"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H300" sqref="H300"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2119,7 +2118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>749</v>
       </c>
@@ -2154,7 +2153,7 @@
         <v>38898</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>750</v>
       </c>
@@ -2189,7 +2188,7 @@
         <v>38898</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>751</v>
       </c>
@@ -2224,7 +2223,7 @@
         <v>38898</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>752</v>
       </c>
@@ -2259,7 +2258,7 @@
         <v>38898</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>753</v>
       </c>
@@ -2294,7 +2293,7 @@
         <v>38898</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>771</v>
       </c>
@@ -2329,7 +2328,7 @@
         <v>38898</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>772</v>
       </c>
@@ -2364,7 +2363,7 @@
         <v>38898</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>773</v>
       </c>
@@ -2399,7 +2398,7 @@
         <v>38898</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>774</v>
       </c>
@@ -2434,7 +2433,7 @@
         <v>38898</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>775</v>
       </c>
@@ -2469,7 +2468,7 @@
         <v>38898</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>776</v>
       </c>
@@ -2504,7 +2503,7 @@
         <v>38898</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>777</v>
       </c>
@@ -2539,7 +2538,7 @@
         <v>38898</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>778</v>
       </c>
@@ -2574,7 +2573,7 @@
         <v>38898</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>789</v>
       </c>
@@ -2609,7 +2608,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>790</v>
       </c>
@@ -2644,7 +2643,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>791</v>
       </c>
@@ -2679,7 +2678,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>792</v>
       </c>
@@ -2712,7 +2711,7 @@
       </c>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>793</v>
       </c>
@@ -2745,7 +2744,7 @@
       </c>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>794</v>
       </c>
@@ -2778,7 +2777,7 @@
       </c>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>795</v>
       </c>
@@ -2811,7 +2810,7 @@
       </c>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>796</v>
       </c>
@@ -2844,7 +2843,7 @@
       </c>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>954</v>
       </c>
@@ -2877,7 +2876,7 @@
       </c>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>955</v>
       </c>
@@ -2910,7 +2909,7 @@
       </c>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>956</v>
       </c>
@@ -2943,7 +2942,7 @@
       </c>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>957</v>
       </c>
@@ -2976,7 +2975,7 @@
       </c>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>966</v>
       </c>
@@ -3009,7 +3008,7 @@
       </c>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>967</v>
       </c>
@@ -3042,7 +3041,7 @@
       </c>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>968</v>
       </c>
@@ -3075,7 +3074,7 @@
       </c>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>969</v>
       </c>
@@ -3108,7 +3107,7 @@
       </c>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>779</v>
       </c>
@@ -3141,7 +3140,7 @@
       </c>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>780</v>
       </c>
@@ -3174,7 +3173,7 @@
       </c>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>781</v>
       </c>
@@ -3207,7 +3206,7 @@
       </c>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>782</v>
       </c>
@@ -3240,7 +3239,7 @@
       </c>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>783</v>
       </c>
@@ -3273,7 +3272,7 @@
       </c>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>784</v>
       </c>
@@ -3306,7 +3305,7 @@
       </c>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>973</v>
       </c>
@@ -3339,7 +3338,7 @@
       </c>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>974</v>
       </c>
@@ -3372,7 +3371,7 @@
       </c>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>975</v>
       </c>
@@ -3405,7 +3404,7 @@
       </c>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>976</v>
       </c>
@@ -3438,7 +3437,7 @@
       </c>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>754</v>
       </c>
@@ -3473,7 +3472,7 @@
         <v>38898</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>755</v>
       </c>
@@ -3508,7 +3507,7 @@
         <v>38898</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>756</v>
       </c>
@@ -3543,7 +3542,7 @@
         <v>38898</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>757</v>
       </c>
@@ -3578,7 +3577,7 @@
         <v>38898</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>758</v>
       </c>
@@ -3613,7 +3612,7 @@
         <v>38898</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>680</v>
       </c>
@@ -3646,7 +3645,7 @@
       </c>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>706</v>
       </c>
@@ -3679,7 +3678,7 @@
       </c>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>717</v>
       </c>
@@ -3712,7 +3711,7 @@
       </c>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>718</v>
       </c>
@@ -3745,7 +3744,7 @@
       </c>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>719</v>
       </c>
@@ -3778,7 +3777,7 @@
       </c>
       <c r="K50" s="2"/>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>720</v>
       </c>
@@ -3811,7 +3810,7 @@
       </c>
       <c r="K51" s="2"/>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>721</v>
       </c>
@@ -3844,7 +3843,7 @@
       </c>
       <c r="K52" s="2"/>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>837</v>
       </c>
@@ -3877,7 +3876,7 @@
       </c>
       <c r="K53" s="2"/>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>838</v>
       </c>
@@ -3910,7 +3909,7 @@
       </c>
       <c r="K54" s="2"/>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>839</v>
       </c>
@@ -3943,7 +3942,7 @@
       </c>
       <c r="K55" s="2"/>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>840</v>
       </c>
@@ -3976,7 +3975,7 @@
       </c>
       <c r="K56" s="2"/>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>739</v>
       </c>
@@ -4009,7 +4008,7 @@
       </c>
       <c r="K57" s="2"/>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>740</v>
       </c>
@@ -4044,7 +4043,7 @@
         <v>38898</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>741</v>
       </c>
@@ -4079,7 +4078,7 @@
         <v>38898</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>742</v>
       </c>
@@ -4112,7 +4111,7 @@
       </c>
       <c r="K60" s="2"/>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>748</v>
       </c>
@@ -4145,7 +4144,7 @@
       </c>
       <c r="K61" s="2"/>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>743</v>
       </c>
@@ -4178,7 +4177,7 @@
       </c>
       <c r="K62" s="2"/>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>744</v>
       </c>
@@ -4213,7 +4212,7 @@
         <v>38898</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>745</v>
       </c>
@@ -4248,7 +4247,7 @@
         <v>38898</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>746</v>
       </c>
@@ -4281,7 +4280,7 @@
       </c>
       <c r="K65" s="2"/>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>747</v>
       </c>
@@ -4314,7 +4313,7 @@
       </c>
       <c r="K66" s="2"/>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>953</v>
       </c>
@@ -4347,7 +4346,7 @@
       </c>
       <c r="K67" s="2"/>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>970</v>
       </c>
@@ -4380,7 +4379,7 @@
       </c>
       <c r="K68" s="2"/>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>971</v>
       </c>
@@ -4413,7 +4412,7 @@
       </c>
       <c r="K69" s="2"/>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>972</v>
       </c>
@@ -4446,7 +4445,7 @@
       </c>
       <c r="K70" s="2"/>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>797</v>
       </c>
@@ -4479,7 +4478,7 @@
       </c>
       <c r="K71" s="2"/>
     </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>798</v>
       </c>
@@ -4512,7 +4511,7 @@
       </c>
       <c r="K72" s="2"/>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>799</v>
       </c>
@@ -4545,7 +4544,7 @@
       </c>
       <c r="K73" s="2"/>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>800</v>
       </c>
@@ -4578,7 +4577,7 @@
       </c>
       <c r="K74" s="2"/>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>801</v>
       </c>
@@ -4611,7 +4610,7 @@
       </c>
       <c r="K75" s="2"/>
     </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>785</v>
       </c>
@@ -4646,7 +4645,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>786</v>
       </c>
@@ -4681,7 +4680,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>787</v>
       </c>
@@ -4716,7 +4715,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>788</v>
       </c>
@@ -4751,7 +4750,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>885</v>
       </c>
@@ -4784,7 +4783,7 @@
       </c>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>887</v>
       </c>
@@ -4817,7 +4816,7 @@
       </c>
       <c r="K81" s="2"/>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>888</v>
       </c>
@@ -4850,7 +4849,7 @@
       </c>
       <c r="K82" s="2"/>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>889</v>
       </c>
@@ -4883,7 +4882,7 @@
       </c>
       <c r="K83" s="2"/>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>890</v>
       </c>
@@ -4916,7 +4915,7 @@
       </c>
       <c r="K84" s="2"/>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>891</v>
       </c>
@@ -4949,7 +4948,7 @@
       </c>
       <c r="K85" s="2"/>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>892</v>
       </c>
@@ -4982,7 +4981,7 @@
       </c>
       <c r="K86" s="2"/>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>893</v>
       </c>
@@ -5015,7 +5014,7 @@
       </c>
       <c r="K87" s="2"/>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>759</v>
       </c>
@@ -5050,7 +5049,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>760</v>
       </c>
@@ -5085,7 +5084,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>761</v>
       </c>
@@ -5120,7 +5119,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>762</v>
       </c>
@@ -5155,7 +5154,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>763</v>
       </c>
@@ -5190,7 +5189,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>764</v>
       </c>
@@ -5225,7 +5224,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>765</v>
       </c>
@@ -5260,7 +5259,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>766</v>
       </c>
@@ -5295,7 +5294,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>767</v>
       </c>
@@ -5330,7 +5329,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>768</v>
       </c>
@@ -5365,7 +5364,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>769</v>
       </c>
@@ -5400,7 +5399,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>770</v>
       </c>
@@ -5435,7 +5434,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>980</v>
       </c>
@@ -5468,7 +5467,7 @@
       </c>
       <c r="K100" s="2"/>
     </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>981</v>
       </c>
@@ -5501,7 +5500,7 @@
       </c>
       <c r="K101" s="2"/>
     </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>982</v>
       </c>
@@ -5534,7 +5533,7 @@
       </c>
       <c r="K102" s="2"/>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>983</v>
       </c>
@@ -5567,7 +5566,7 @@
       </c>
       <c r="K103" s="2"/>
     </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>958</v>
       </c>
@@ -5600,7 +5599,7 @@
       </c>
       <c r="K104" s="2"/>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>959</v>
       </c>
@@ -5633,7 +5632,7 @@
       </c>
       <c r="K105" s="2"/>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>960</v>
       </c>
@@ -5666,7 +5665,7 @@
       </c>
       <c r="K106" s="2"/>
     </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>961</v>
       </c>
@@ -5699,7 +5698,7 @@
       </c>
       <c r="K107" s="2"/>
     </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>962</v>
       </c>
@@ -5732,7 +5731,7 @@
       </c>
       <c r="K108" s="2"/>
     </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>963</v>
       </c>
@@ -5765,7 +5764,7 @@
       </c>
       <c r="K109" s="2"/>
     </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>964</v>
       </c>
@@ -5798,7 +5797,7 @@
       </c>
       <c r="K110" s="2"/>
     </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>965</v>
       </c>
@@ -5831,7 +5830,7 @@
       </c>
       <c r="K111" s="2"/>
     </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>978</v>
       </c>
@@ -5864,7 +5863,7 @@
       </c>
       <c r="K112" s="2"/>
     </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>979</v>
       </c>
@@ -5897,7 +5896,7 @@
       </c>
       <c r="K113" s="2"/>
     </row>
-    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>731</v>
       </c>
@@ -5932,7 +5931,7 @@
         <v>38898</v>
       </c>
     </row>
-    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>732</v>
       </c>
@@ -5967,7 +5966,7 @@
         <v>38898</v>
       </c>
     </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>733</v>
       </c>
@@ -6002,7 +6001,7 @@
         <v>38898</v>
       </c>
     </row>
-    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>734</v>
       </c>
@@ -6037,7 +6036,7 @@
         <v>38898</v>
       </c>
     </row>
-    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>735</v>
       </c>
@@ -6072,7 +6071,7 @@
         <v>38898</v>
       </c>
     </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>822</v>
       </c>
@@ -6105,7 +6104,7 @@
       </c>
       <c r="K119" s="2"/>
     </row>
-    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>833</v>
       </c>
@@ -6138,7 +6137,7 @@
       </c>
       <c r="K120" s="2"/>
     </row>
-    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>834</v>
       </c>
@@ -6171,7 +6170,7 @@
       </c>
       <c r="K121" s="2"/>
     </row>
-    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>835</v>
       </c>
@@ -6204,7 +6203,7 @@
       </c>
       <c r="K122" s="2"/>
     </row>
-    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>836</v>
       </c>
@@ -6237,7 +6236,7 @@
       </c>
       <c r="K123" s="2"/>
     </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>984</v>
       </c>
@@ -6270,7 +6269,7 @@
       </c>
       <c r="K124" s="2"/>
     </row>
-    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>985</v>
       </c>
@@ -6303,7 +6302,7 @@
       </c>
       <c r="K125" s="2"/>
     </row>
-    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>986</v>
       </c>
@@ -6336,7 +6335,7 @@
       </c>
       <c r="K126" s="2"/>
     </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>987</v>
       </c>
@@ -6369,7 +6368,7 @@
       </c>
       <c r="K127" s="2"/>
     </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>988</v>
       </c>
@@ -6402,7 +6401,7 @@
       </c>
       <c r="K128" s="2"/>
     </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>977</v>
       </c>
@@ -6435,7 +6434,7 @@
       </c>
       <c r="K129" s="2"/>
     </row>
-    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>989</v>
       </c>
@@ -6468,7 +6467,7 @@
       </c>
       <c r="K130" s="2"/>
     </row>
-    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>990</v>
       </c>
@@ -6501,7 +6500,7 @@
       </c>
       <c r="K131" s="2"/>
     </row>
-    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>991</v>
       </c>
@@ -6534,7 +6533,7 @@
       </c>
       <c r="K132" s="2"/>
     </row>
-    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>992</v>
       </c>
@@ -6567,7 +6566,7 @@
       </c>
       <c r="K133" s="2"/>
     </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>993</v>
       </c>
@@ -6600,7 +6599,7 @@
       </c>
       <c r="K134" s="2"/>
     </row>
-    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>997</v>
       </c>
@@ -6633,7 +6632,7 @@
       </c>
       <c r="K135" s="2"/>
     </row>
-    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>998</v>
       </c>
@@ -6666,7 +6665,7 @@
       </c>
       <c r="K136" s="2"/>
     </row>
-    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>999</v>
       </c>
@@ -6699,7 +6698,7 @@
       </c>
       <c r="K137" s="2"/>
     </row>
-    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>951</v>
       </c>
@@ -6730,7 +6729,7 @@
       </c>
       <c r="K138" s="2"/>
     </row>
-    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>904</v>
       </c>
@@ -6763,7 +6762,7 @@
       </c>
       <c r="K139" s="2"/>
     </row>
-    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>905</v>
       </c>
@@ -6796,7 +6795,7 @@
       </c>
       <c r="K140" s="2"/>
     </row>
-    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>906</v>
       </c>
@@ -6829,7 +6828,7 @@
       </c>
       <c r="K141" s="2"/>
     </row>
-    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>942</v>
       </c>
@@ -6862,7 +6861,7 @@
       </c>
       <c r="K142" s="2"/>
     </row>
-    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>828</v>
       </c>
@@ -6895,7 +6894,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>814</v>
       </c>
@@ -6930,7 +6929,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>830</v>
       </c>
@@ -6965,7 +6964,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>831</v>
       </c>
@@ -7000,7 +6999,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>832</v>
       </c>
@@ -7035,7 +7034,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>722</v>
       </c>
@@ -7068,7 +7067,7 @@
       </c>
       <c r="K148" s="2"/>
     </row>
-    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>723</v>
       </c>
@@ -7101,7 +7100,7 @@
       </c>
       <c r="K149" s="2"/>
     </row>
-    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>724</v>
       </c>
@@ -7134,7 +7133,7 @@
       </c>
       <c r="K150" s="2"/>
     </row>
-    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>725</v>
       </c>
@@ -7169,7 +7168,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>726</v>
       </c>
@@ -7204,7 +7203,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>727</v>
       </c>
@@ -7239,7 +7238,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>728</v>
       </c>
@@ -7274,7 +7273,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>729</v>
       </c>
@@ -7309,7 +7308,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>730</v>
       </c>
@@ -7344,7 +7343,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>736</v>
       </c>
@@ -7377,7 +7376,7 @@
       </c>
       <c r="K157" s="2"/>
     </row>
-    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>737</v>
       </c>
@@ -7410,7 +7409,7 @@
       </c>
       <c r="K158" s="2"/>
     </row>
-    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>738</v>
       </c>
@@ -7443,7 +7442,7 @@
       </c>
       <c r="K159" s="2"/>
     </row>
-    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>886</v>
       </c>
@@ -7476,7 +7475,7 @@
       </c>
       <c r="K160" s="2"/>
     </row>
-    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>895</v>
       </c>
@@ -7509,7 +7508,7 @@
       </c>
       <c r="K161" s="2"/>
     </row>
-    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>896</v>
       </c>
@@ -7542,7 +7541,7 @@
       </c>
       <c r="K162" s="2"/>
     </row>
-    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>897</v>
       </c>
@@ -7575,7 +7574,7 @@
       </c>
       <c r="K163" s="2"/>
     </row>
-    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>898</v>
       </c>
@@ -7608,7 +7607,7 @@
       </c>
       <c r="K164" s="2"/>
     </row>
-    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>899</v>
       </c>
@@ -7641,7 +7640,7 @@
       </c>
       <c r="K165" s="2"/>
     </row>
-    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>900</v>
       </c>
@@ -7674,7 +7673,7 @@
       </c>
       <c r="K166" s="2"/>
     </row>
-    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>901</v>
       </c>
@@ -7707,7 +7706,7 @@
       </c>
       <c r="K167" s="2"/>
     </row>
-    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>902</v>
       </c>
@@ -7740,7 +7739,7 @@
       </c>
       <c r="K168" s="2"/>
     </row>
-    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>903</v>
       </c>
@@ -7773,7 +7772,7 @@
       </c>
       <c r="K169" s="2"/>
     </row>
-    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>820</v>
       </c>
@@ -7806,7 +7805,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>825</v>
       </c>
@@ -7836,7 +7835,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>817</v>
       </c>
@@ -7866,7 +7865,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>827</v>
       </c>
@@ -7899,7 +7898,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>917</v>
       </c>
@@ -7932,7 +7931,7 @@
       </c>
       <c r="K174" s="2"/>
     </row>
-    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>918</v>
       </c>
@@ -7965,7 +7964,7 @@
       </c>
       <c r="K175" s="2"/>
     </row>
-    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>919</v>
       </c>
@@ -7998,7 +7997,7 @@
       </c>
       <c r="K176" s="2"/>
     </row>
-    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>920</v>
       </c>
@@ -8031,7 +8030,7 @@
       </c>
       <c r="K177" s="2"/>
     </row>
-    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>944</v>
       </c>
@@ -8064,7 +8063,7 @@
       </c>
       <c r="K178" s="2"/>
     </row>
-    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>950</v>
       </c>
@@ -8095,7 +8094,7 @@
       </c>
       <c r="K179" s="2"/>
     </row>
-    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>924</v>
       </c>
@@ -8128,7 +8127,7 @@
       </c>
       <c r="K180" s="2"/>
     </row>
-    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>925</v>
       </c>
@@ -8161,7 +8160,7 @@
       </c>
       <c r="K181" s="2"/>
     </row>
-    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>926</v>
       </c>
@@ -8194,7 +8193,7 @@
       </c>
       <c r="K182" s="2"/>
     </row>
-    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>927</v>
       </c>
@@ -8227,7 +8226,7 @@
       </c>
       <c r="K183" s="2"/>
     </row>
-    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>943</v>
       </c>
@@ -8260,7 +8259,7 @@
       </c>
       <c r="K184" s="2"/>
     </row>
-    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>819</v>
       </c>
@@ -8293,7 +8292,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>829</v>
       </c>
@@ -8323,7 +8322,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>824</v>
       </c>
@@ -8353,7 +8352,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>804</v>
       </c>
@@ -8381,7 +8380,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>821</v>
       </c>
@@ -8411,7 +8410,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>816</v>
       </c>
@@ -8441,7 +8440,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>803</v>
       </c>
@@ -8469,7 +8468,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>949</v>
       </c>
@@ -8500,7 +8499,7 @@
       </c>
       <c r="K192" s="2"/>
     </row>
-    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>879</v>
       </c>
@@ -8526,7 +8525,7 @@
       </c>
       <c r="K193" s="2"/>
     </row>
-    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>802</v>
       </c>
@@ -8554,7 +8553,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>842</v>
       </c>
@@ -8584,7 +8583,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>807</v>
       </c>
@@ -8612,7 +8611,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>996</v>
       </c>
@@ -8641,7 +8640,7 @@
       </c>
       <c r="K197" s="2"/>
     </row>
-    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>894</v>
       </c>
@@ -8672,7 +8671,7 @@
       </c>
       <c r="K198" s="2"/>
     </row>
-    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>810</v>
       </c>
@@ -8698,7 +8697,7 @@
       </c>
       <c r="K199" s="2"/>
     </row>
-    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>813</v>
       </c>
@@ -8724,7 +8723,7 @@
       </c>
       <c r="K200" s="2"/>
     </row>
-    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>876</v>
       </c>
@@ -8750,7 +8749,7 @@
       </c>
       <c r="K201" s="2"/>
     </row>
-    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>826</v>
       </c>
@@ -8783,7 +8782,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>907</v>
       </c>
@@ -8814,7 +8813,7 @@
       </c>
       <c r="K203" s="2"/>
     </row>
-    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>948</v>
       </c>
@@ -8845,7 +8844,7 @@
       </c>
       <c r="K204" s="2"/>
     </row>
-    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>806</v>
       </c>
@@ -8873,7 +8872,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>995</v>
       </c>
@@ -8902,7 +8901,7 @@
       </c>
       <c r="K206" s="2"/>
     </row>
-    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>947</v>
       </c>
@@ -8928,7 +8927,7 @@
       </c>
       <c r="K207" s="2"/>
     </row>
-    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>945</v>
       </c>
@@ -8959,7 +8958,7 @@
       </c>
       <c r="K208" s="2"/>
     </row>
-    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>855</v>
       </c>
@@ -8991,7 +8990,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>856</v>
       </c>
@@ -9023,7 +9022,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>857</v>
       </c>
@@ -9055,7 +9054,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>823</v>
       </c>
@@ -9085,7 +9084,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>818</v>
       </c>
@@ -9118,7 +9117,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>937</v>
       </c>
@@ -9149,7 +9148,7 @@
       </c>
       <c r="K214" s="2"/>
     </row>
-    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>940</v>
       </c>
@@ -9180,7 +9179,7 @@
       </c>
       <c r="K215" s="2"/>
     </row>
-    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>941</v>
       </c>
@@ -9208,7 +9207,7 @@
       </c>
       <c r="K216" s="2"/>
     </row>
-    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>852</v>
       </c>
@@ -9240,7 +9239,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>853</v>
       </c>
@@ -9272,7 +9271,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>854</v>
       </c>
@@ -9304,7 +9303,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>867</v>
       </c>
@@ -9334,7 +9333,7 @@
       </c>
       <c r="K220" s="2"/>
     </row>
-    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>868</v>
       </c>
@@ -9364,7 +9363,7 @@
       </c>
       <c r="K221" s="2"/>
     </row>
-    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>869</v>
       </c>
@@ -9394,7 +9393,7 @@
       </c>
       <c r="K222" s="2"/>
     </row>
-    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>864</v>
       </c>
@@ -9424,7 +9423,7 @@
       </c>
       <c r="K223" s="2"/>
     </row>
-    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>865</v>
       </c>
@@ -9454,7 +9453,7 @@
       </c>
       <c r="K224" s="2"/>
     </row>
-    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>866</v>
       </c>
@@ -9484,7 +9483,7 @@
       </c>
       <c r="K225" s="2"/>
     </row>
-    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>936</v>
       </c>
@@ -9515,7 +9514,7 @@
       </c>
       <c r="K226" s="2"/>
     </row>
-    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>939</v>
       </c>
@@ -9546,7 +9545,7 @@
       </c>
       <c r="K227" s="2"/>
     </row>
-    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>809</v>
       </c>
@@ -9572,7 +9571,7 @@
       </c>
       <c r="K228" s="2"/>
     </row>
-    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>812</v>
       </c>
@@ -9598,7 +9597,7 @@
       </c>
       <c r="K229" s="2"/>
     </row>
-    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>815</v>
       </c>
@@ -9628,7 +9627,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>841</v>
       </c>
@@ -9660,7 +9659,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>849</v>
       </c>
@@ -9692,7 +9691,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>850</v>
       </c>
@@ -9724,7 +9723,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>851</v>
       </c>
@@ -9756,7 +9755,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>880</v>
       </c>
@@ -9786,7 +9785,7 @@
       </c>
       <c r="K235" s="2"/>
     </row>
-    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>881</v>
       </c>
@@ -9816,7 +9815,7 @@
       </c>
       <c r="K236" s="2"/>
     </row>
-    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>882</v>
       </c>
@@ -9846,7 +9845,7 @@
       </c>
       <c r="K237" s="2"/>
     </row>
-    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>883</v>
       </c>
@@ -9876,7 +9875,7 @@
       </c>
       <c r="K238" s="2"/>
     </row>
-    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>884</v>
       </c>
@@ -9906,7 +9905,7 @@
       </c>
       <c r="K239" s="2"/>
     </row>
-    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>994</v>
       </c>
@@ -9935,7 +9934,7 @@
       </c>
       <c r="K240" s="2"/>
     </row>
-    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>910</v>
       </c>
@@ -9961,7 +9960,7 @@
       </c>
       <c r="K241" s="2"/>
     </row>
-    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>913</v>
       </c>
@@ -9987,7 +9986,7 @@
       </c>
       <c r="K242" s="2"/>
     </row>
-    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>916</v>
       </c>
@@ -10013,7 +10012,7 @@
       </c>
       <c r="K243" s="2"/>
     </row>
-    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>713</v>
       </c>
@@ -10043,7 +10042,7 @@
       </c>
       <c r="K244" s="2"/>
     </row>
-    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>714</v>
       </c>
@@ -10073,7 +10072,7 @@
       </c>
       <c r="K245" s="2"/>
     </row>
-    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>715</v>
       </c>
@@ -10103,7 +10102,7 @@
       </c>
       <c r="K246" s="2"/>
     </row>
-    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>716</v>
       </c>
@@ -10133,7 +10132,7 @@
       </c>
       <c r="K247" s="2"/>
     </row>
-    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>946</v>
       </c>
@@ -10159,7 +10158,7 @@
       </c>
       <c r="K248" s="2"/>
     </row>
-    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>848</v>
       </c>
@@ -10187,7 +10186,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>808</v>
       </c>
@@ -10213,7 +10212,7 @@
       </c>
       <c r="K250" s="2"/>
     </row>
-    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>811</v>
       </c>
@@ -10239,7 +10238,7 @@
       </c>
       <c r="K251" s="2"/>
     </row>
-    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>935</v>
       </c>
@@ -10270,7 +10269,7 @@
       </c>
       <c r="K252" s="2"/>
     </row>
-    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>938</v>
       </c>
@@ -10301,7 +10300,7 @@
       </c>
       <c r="K253" s="2"/>
     </row>
-    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>909</v>
       </c>
@@ -10327,7 +10326,7 @@
       </c>
       <c r="K254" s="2"/>
     </row>
-    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>912</v>
       </c>
@@ -10353,7 +10352,7 @@
       </c>
       <c r="K255" s="2"/>
     </row>
-    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>915</v>
       </c>
@@ -10379,7 +10378,7 @@
       </c>
       <c r="K256" s="2"/>
     </row>
-    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>861</v>
       </c>
@@ -10411,7 +10410,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>862</v>
       </c>
@@ -10443,7 +10442,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>863</v>
       </c>
@@ -10475,7 +10474,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>930</v>
       </c>
@@ -10501,7 +10500,7 @@
       </c>
       <c r="K260" s="2"/>
     </row>
-    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>707</v>
       </c>
@@ -10529,7 +10528,7 @@
       </c>
       <c r="K261" s="2"/>
     </row>
-    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>708</v>
       </c>
@@ -10557,7 +10556,7 @@
       </c>
       <c r="K262" s="2"/>
     </row>
-    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>711</v>
       </c>
@@ -10585,7 +10584,7 @@
       </c>
       <c r="K263" s="2"/>
     </row>
-    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>847</v>
       </c>
@@ -10613,7 +10612,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>805</v>
       </c>
@@ -10641,7 +10640,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>933</v>
       </c>
@@ -10667,7 +10666,7 @@
       </c>
       <c r="K266" s="2"/>
     </row>
-    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>929</v>
       </c>
@@ -10693,7 +10692,7 @@
       </c>
       <c r="K267" s="2"/>
     </row>
-    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>934</v>
       </c>
@@ -10719,7 +10718,7 @@
       </c>
       <c r="K268" s="2"/>
     </row>
-    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>908</v>
       </c>
@@ -10745,7 +10744,7 @@
       </c>
       <c r="K269" s="2"/>
     </row>
-    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>911</v>
       </c>
@@ -10771,7 +10770,7 @@
       </c>
       <c r="K270" s="2"/>
     </row>
-    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>914</v>
       </c>
@@ -10797,7 +10796,7 @@
       </c>
       <c r="K271" s="2"/>
     </row>
-    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>843</v>
       </c>
@@ -10825,7 +10824,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>845</v>
       </c>
@@ -10853,7 +10852,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>928</v>
       </c>
@@ -10879,7 +10878,7 @@
       </c>
       <c r="K274" s="2"/>
     </row>
-    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>932</v>
       </c>
@@ -10905,7 +10904,7 @@
       </c>
       <c r="K275" s="2"/>
     </row>
-    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>858</v>
       </c>
@@ -10935,7 +10934,7 @@
       </c>
       <c r="K276" s="2"/>
     </row>
-    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>859</v>
       </c>
@@ -10965,7 +10964,7 @@
       </c>
       <c r="K277" s="2"/>
     </row>
-    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>860</v>
       </c>
@@ -10995,7 +10994,7 @@
       </c>
       <c r="K278" s="2"/>
     </row>
-    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>878</v>
       </c>
@@ -11021,7 +11020,7 @@
       </c>
       <c r="K279" s="2"/>
     </row>
-    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>931</v>
       </c>
@@ -11047,7 +11046,7 @@
       </c>
       <c r="K280" s="2"/>
     </row>
-    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>952</v>
       </c>
@@ -11075,7 +11074,7 @@
       </c>
       <c r="K281" s="2"/>
     </row>
-    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>844</v>
       </c>
@@ -11103,7 +11102,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>846</v>
       </c>
@@ -11131,7 +11130,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>871</v>
       </c>
@@ -11157,7 +11156,7 @@
       </c>
       <c r="K284" s="2"/>
     </row>
-    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>709</v>
       </c>
@@ -11189,7 +11188,7 @@
         <v>38898</v>
       </c>
     </row>
-    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>710</v>
       </c>
@@ -11221,7 +11220,7 @@
         <v>38898</v>
       </c>
     </row>
-    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>712</v>
       </c>
@@ -11249,7 +11248,7 @@
       </c>
       <c r="K287" s="2"/>
     </row>
-    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>872</v>
       </c>
@@ -11275,7 +11274,7 @@
       </c>
       <c r="K288" s="2"/>
     </row>
-    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>874</v>
       </c>
@@ -11305,7 +11304,7 @@
       </c>
       <c r="K289" s="2"/>
     </row>
-    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>875</v>
       </c>
@@ -11335,7 +11334,7 @@
       </c>
       <c r="K290" s="2"/>
     </row>
-    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>877</v>
       </c>
@@ -11361,7 +11360,7 @@
       </c>
       <c r="K291" s="2"/>
     </row>
-    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>870</v>
       </c>
@@ -11387,7 +11386,7 @@
       </c>
       <c r="K292" s="2"/>
     </row>
-    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>921</v>
       </c>
@@ -11413,7 +11412,7 @@
       </c>
       <c r="K293" s="2"/>
     </row>
-    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>923</v>
       </c>
@@ -11439,7 +11438,7 @@
       </c>
       <c r="K294" s="2"/>
     </row>
-    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>922</v>
       </c>
@@ -11465,7 +11464,7 @@
       </c>
       <c r="K295" s="2"/>
     </row>
-    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>873</v>
       </c>
@@ -11505,23 +11504,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="54.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="54.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>334</v>
       </c>
@@ -11532,7 +11531,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>29922</v>
       </c>
@@ -11557,19 +11556,19 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -11577,7 +11576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>908</v>
       </c>
@@ -11585,7 +11584,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>909</v>
       </c>
@@ -11593,7 +11592,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>910</v>
       </c>
@@ -11601,7 +11600,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>911</v>
       </c>
@@ -11609,7 +11608,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>912</v>
       </c>
@@ -11617,7 +11616,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>913</v>
       </c>
@@ -11625,7 +11624,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>914</v>
       </c>
@@ -11633,7 +11632,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>915</v>
       </c>
@@ -11641,7 +11640,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>916</v>
       </c>
@@ -11661,26 +11660,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F66DCA-3AAD-467B-A29D-AC586E6F64DB}">
   <dimension ref="A1:C543"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E449" sqref="E449"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>372</v>
       </c>
@@ -11691,7 +11690,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>71782</v>
       </c>
@@ -11702,7 +11701,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>71782</v>
       </c>
@@ -11713,7 +11712,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>71782</v>
       </c>
@@ -11724,7 +11723,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>71782</v>
       </c>
@@ -11735,7 +11734,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>71782</v>
       </c>
@@ -11746,7 +11745,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>71782</v>
       </c>
@@ -11757,7 +11756,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>71782</v>
       </c>
@@ -11768,7 +11767,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>71782</v>
       </c>
@@ -11779,7 +11778,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>71782</v>
       </c>
@@ -11790,7 +11789,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>71782</v>
       </c>
@@ -11801,7 +11800,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>71782</v>
       </c>
@@ -11812,7 +11811,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>71782</v>
       </c>
@@ -11823,7 +11822,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>71782</v>
       </c>
@@ -11834,7 +11833,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>71782</v>
       </c>
@@ -11845,7 +11844,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>71782</v>
       </c>
@@ -11856,7 +11855,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>71782</v>
       </c>
@@ -11867,7 +11866,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>71782</v>
       </c>
@@ -11878,7 +11877,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>71782</v>
       </c>
@@ -11889,7 +11888,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>71782</v>
       </c>
@@ -11900,7 +11899,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>71782</v>
       </c>
@@ -11911,7 +11910,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>71782</v>
       </c>
@@ -11922,7 +11921,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>71782</v>
       </c>
@@ -11933,7 +11932,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>71782</v>
       </c>
@@ -11944,7 +11943,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>71782</v>
       </c>
@@ -11955,7 +11954,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>71782</v>
       </c>
@@ -11966,7 +11965,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>71782</v>
       </c>
@@ -11977,7 +11976,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>71782</v>
       </c>
@@ -11988,7 +11987,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>71782</v>
       </c>
@@ -11999,7 +11998,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>71782</v>
       </c>
@@ -12010,7 +12009,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>71782</v>
       </c>
@@ -12021,7 +12020,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>71782</v>
       </c>
@@ -12032,7 +12031,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>71782</v>
       </c>
@@ -12043,7 +12042,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>71782</v>
       </c>
@@ -12054,7 +12053,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>71782</v>
       </c>
@@ -12065,7 +12064,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>71782</v>
       </c>
@@ -12076,7 +12075,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>71782</v>
       </c>
@@ -12087,7 +12086,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>71782</v>
       </c>
@@ -12098,7 +12097,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>71782</v>
       </c>
@@ -12109,7 +12108,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>71782</v>
       </c>
@@ -12120,7 +12119,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>71782</v>
       </c>
@@ -12131,7 +12130,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>71782</v>
       </c>
@@ -12142,7 +12141,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>71782</v>
       </c>
@@ -12153,7 +12152,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>71782</v>
       </c>
@@ -12164,7 +12163,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>71867</v>
       </c>
@@ -12175,7 +12174,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>71885</v>
       </c>
@@ -12186,7 +12185,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>71885</v>
       </c>
@@ -12197,7 +12196,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>71885</v>
       </c>
@@ -12208,7 +12207,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>71895</v>
       </c>
@@ -12219,7 +12218,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>71895</v>
       </c>
@@ -12230,7 +12229,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>71895</v>
       </c>
@@ -12241,7 +12240,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>71899</v>
       </c>
@@ -12252,7 +12251,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>71899</v>
       </c>
@@ -12263,7 +12262,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>71899</v>
       </c>
@@ -12274,7 +12273,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>71899</v>
       </c>
@@ -12285,7 +12284,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>71899</v>
       </c>
@@ -12296,7 +12295,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>71899</v>
       </c>
@@ -12307,7 +12306,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>71899</v>
       </c>
@@ -12318,7 +12317,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>71899</v>
       </c>
@@ -12329,7 +12328,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>71915</v>
       </c>
@@ -12340,7 +12339,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>71915</v>
       </c>
@@ -12351,7 +12350,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>71915</v>
       </c>
@@ -12362,7 +12361,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>71915</v>
       </c>
@@ -12373,7 +12372,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>71915</v>
       </c>
@@ -12384,7 +12383,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>71935</v>
       </c>
@@ -12395,7 +12394,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>71935</v>
       </c>
@@ -12406,7 +12405,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>71935</v>
       </c>
@@ -12417,7 +12416,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>71935</v>
       </c>
@@ -12428,7 +12427,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>71935</v>
       </c>
@@ -12439,7 +12438,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>71935</v>
       </c>
@@ -12450,7 +12449,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>71938</v>
       </c>
@@ -12461,7 +12460,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71938</v>
       </c>
@@ -12472,7 +12471,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>71938</v>
       </c>
@@ -12483,7 +12482,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>71938</v>
       </c>
@@ -12494,7 +12493,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>71938</v>
       </c>
@@ -12505,7 +12504,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>71938</v>
       </c>
@@ -12516,7 +12515,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>71938</v>
       </c>
@@ -12527,7 +12526,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>71938</v>
       </c>
@@ -12538,7 +12537,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>71938</v>
       </c>
@@ -12549,7 +12548,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>71938</v>
       </c>
@@ -12560,7 +12559,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>71938</v>
       </c>
@@ -12571,7 +12570,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>71938</v>
       </c>
@@ -12582,7 +12581,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>71938</v>
       </c>
@@ -12593,7 +12592,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>71938</v>
       </c>
@@ -12604,7 +12603,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>71938</v>
       </c>
@@ -12615,7 +12614,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>71938</v>
       </c>
@@ -12626,7 +12625,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>71938</v>
       </c>
@@ -12637,7 +12636,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>71938</v>
       </c>
@@ -12648,7 +12647,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>71938</v>
       </c>
@@ -12659,7 +12658,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>71938</v>
       </c>
@@ -12670,7 +12669,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>71938</v>
       </c>
@@ -12681,7 +12680,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>71938</v>
       </c>
@@ -12692,7 +12691,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>71938</v>
       </c>
@@ -12703,7 +12702,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>71938</v>
       </c>
@@ -12714,7 +12713,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>71938</v>
       </c>
@@ -12725,7 +12724,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>71938</v>
       </c>
@@ -12736,7 +12735,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>71938</v>
       </c>
@@ -12747,7 +12746,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>71938</v>
       </c>
@@ -12758,7 +12757,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>71938</v>
       </c>
@@ -12769,7 +12768,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>71938</v>
       </c>
@@ -12780,7 +12779,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>71938</v>
       </c>
@@ -12791,7 +12790,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>71938</v>
       </c>
@@ -12802,7 +12801,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>71938</v>
       </c>
@@ -12813,7 +12812,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>71938</v>
       </c>
@@ -12824,7 +12823,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>71938</v>
       </c>
@@ -12835,7 +12834,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>71938</v>
       </c>
@@ -12846,7 +12845,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>71938</v>
       </c>
@@ -12857,7 +12856,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>71938</v>
       </c>
@@ -12868,7 +12867,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>71938</v>
       </c>
@@ -12879,7 +12878,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>71938</v>
       </c>
@@ -12890,7 +12889,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>71938</v>
       </c>
@@ -12901,7 +12900,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>71938</v>
       </c>
@@ -12912,7 +12911,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>71858</v>
       </c>
@@ -12923,7 +12922,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>71858</v>
       </c>
@@ -12934,7 +12933,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>71858</v>
       </c>
@@ -12945,7 +12944,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>71858</v>
       </c>
@@ -12956,7 +12955,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>71858</v>
       </c>
@@ -12967,7 +12966,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>71858</v>
       </c>
@@ -12978,7 +12977,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>71858</v>
       </c>
@@ -12989,7 +12988,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>71858</v>
       </c>
@@ -13000,7 +12999,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>71858</v>
       </c>
@@ -13011,7 +13010,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>71858</v>
       </c>
@@ -13022,7 +13021,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>71858</v>
       </c>
@@ -13033,7 +13032,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>71858</v>
       </c>
@@ -13044,7 +13043,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>71858</v>
       </c>
@@ -13055,7 +13054,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>71858</v>
       </c>
@@ -13066,7 +13065,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>71858</v>
       </c>
@@ -13077,7 +13076,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>71858</v>
       </c>
@@ -13088,7 +13087,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>71858</v>
       </c>
@@ -13099,7 +13098,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>71796</v>
       </c>
@@ -13110,7 +13109,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>71796</v>
       </c>
@@ -13121,7 +13120,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>71796</v>
       </c>
@@ -13132,7 +13131,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>71796</v>
       </c>
@@ -13143,7 +13142,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>71796</v>
       </c>
@@ -13154,7 +13153,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>71796</v>
       </c>
@@ -13165,7 +13164,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>71796</v>
       </c>
@@ -13176,7 +13175,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>71796</v>
       </c>
@@ -13187,7 +13186,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>71796</v>
       </c>
@@ -13198,7 +13197,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>71796</v>
       </c>
@@ -13209,7 +13208,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>71796</v>
       </c>
@@ -13220,7 +13219,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>71796</v>
       </c>
@@ -13231,7 +13230,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>71796</v>
       </c>
@@ -13242,7 +13241,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>71796</v>
       </c>
@@ -13253,7 +13252,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>71796</v>
       </c>
@@ -13264,7 +13263,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>71796</v>
       </c>
@@ -13275,7 +13274,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>71796</v>
       </c>
@@ -13286,7 +13285,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>71796</v>
       </c>
@@ -13297,7 +13296,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>71796</v>
       </c>
@@ -13308,7 +13307,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>71796</v>
       </c>
@@ -13319,7 +13318,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>71784</v>
       </c>
@@ -13330,7 +13329,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>71784</v>
       </c>
@@ -13341,7 +13340,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>71784</v>
       </c>
@@ -13352,7 +13351,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>71784</v>
       </c>
@@ -13363,7 +13362,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>71784</v>
       </c>
@@ -13374,7 +13373,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>71784</v>
       </c>
@@ -13385,7 +13384,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>71784</v>
       </c>
@@ -13396,7 +13395,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>71784</v>
       </c>
@@ -13407,7 +13406,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>71784</v>
       </c>
@@ -13418,7 +13417,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>71784</v>
       </c>
@@ -13429,7 +13428,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>71784</v>
       </c>
@@ -13440,7 +13439,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>71784</v>
       </c>
@@ -13451,7 +13450,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>71784</v>
       </c>
@@ -13462,7 +13461,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>71784</v>
       </c>
@@ -13473,7 +13472,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>71784</v>
       </c>
@@ -13484,7 +13483,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>71784</v>
       </c>
@@ -13495,7 +13494,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>71784</v>
       </c>
@@ -13506,7 +13505,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>71784</v>
       </c>
@@ -13517,7 +13516,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>71784</v>
       </c>
@@ -13528,7 +13527,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>71784</v>
       </c>
@@ -13539,7 +13538,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>71784</v>
       </c>
@@ -13550,7 +13549,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>71784</v>
       </c>
@@ -13561,7 +13560,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>71784</v>
       </c>
@@ -13572,7 +13571,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>71784</v>
       </c>
@@ -13583,7 +13582,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>71784</v>
       </c>
@@ -13594,7 +13593,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>71784</v>
       </c>
@@ -13605,7 +13604,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>71784</v>
       </c>
@@ -13616,7 +13615,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>71784</v>
       </c>
@@ -13627,7 +13626,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>71784</v>
       </c>
@@ -13638,7 +13637,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>71784</v>
       </c>
@@ -13649,7 +13648,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>71784</v>
       </c>
@@ -13660,7 +13659,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>71784</v>
       </c>
@@ -13671,7 +13670,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>71784</v>
       </c>
@@ -13682,7 +13681,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>71784</v>
       </c>
@@ -13693,7 +13692,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>71784</v>
       </c>
@@ -13704,7 +13703,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>71784</v>
       </c>
@@ -13715,7 +13714,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>71784</v>
       </c>
@@ -13726,7 +13725,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>71784</v>
       </c>
@@ -13737,7 +13736,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>71784</v>
       </c>
@@ -13748,7 +13747,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>71784</v>
       </c>
@@ -13759,7 +13758,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>71784</v>
       </c>
@@ -13770,7 +13769,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>71784</v>
       </c>
@@ -13781,7 +13780,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>71784</v>
       </c>
@@ -13792,7 +13791,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>71946</v>
       </c>
@@ -13803,7 +13802,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>71923</v>
       </c>
@@ -13814,7 +13813,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>71923</v>
       </c>
@@ -13825,7 +13824,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>71923</v>
       </c>
@@ -13836,7 +13835,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>71797</v>
       </c>
@@ -13847,7 +13846,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>71797</v>
       </c>
@@ -13858,7 +13857,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>71797</v>
       </c>
@@ -13869,7 +13868,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>71797</v>
       </c>
@@ -13880,7 +13879,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>71797</v>
       </c>
@@ -13891,7 +13890,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>71797</v>
       </c>
@@ -13902,7 +13901,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>71797</v>
       </c>
@@ -13913,7 +13912,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>71797</v>
       </c>
@@ -13924,7 +13923,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>71797</v>
       </c>
@@ -13935,7 +13934,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>71797</v>
       </c>
@@ -13946,7 +13945,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>71797</v>
       </c>
@@ -13957,7 +13956,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>71797</v>
       </c>
@@ -13968,7 +13967,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="209" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>71797</v>
       </c>
@@ -13979,7 +13978,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>71797</v>
       </c>
@@ -13990,7 +13989,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>71797</v>
       </c>
@@ -14001,7 +14000,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>71797</v>
       </c>
@@ -14012,7 +14011,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>71797</v>
       </c>
@@ -14023,7 +14022,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>71797</v>
       </c>
@@ -14034,7 +14033,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>71797</v>
       </c>
@@ -14045,7 +14044,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>71797</v>
       </c>
@@ -14056,7 +14055,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>71797</v>
       </c>
@@ -14067,7 +14066,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>71797</v>
       </c>
@@ -14078,7 +14077,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>71797</v>
       </c>
@@ -14089,7 +14088,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>71797</v>
       </c>
@@ -14100,7 +14099,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>71797</v>
       </c>
@@ -14111,7 +14110,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>71797</v>
       </c>
@@ -14122,7 +14121,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>71797</v>
       </c>
@@ -14133,7 +14132,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>71797</v>
       </c>
@@ -14144,7 +14143,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>71797</v>
       </c>
@@ -14155,7 +14154,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>71797</v>
       </c>
@@ -14166,7 +14165,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>71797</v>
       </c>
@@ -14177,7 +14176,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>71797</v>
       </c>
@@ -14188,7 +14187,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>71797</v>
       </c>
@@ -14199,7 +14198,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>71797</v>
       </c>
@@ -14210,7 +14209,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>71797</v>
       </c>
@@ -14221,7 +14220,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>71797</v>
       </c>
@@ -14232,7 +14231,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>71797</v>
       </c>
@@ -14243,7 +14242,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>71797</v>
       </c>
@@ -14254,7 +14253,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>71797</v>
       </c>
@@ -14265,7 +14264,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>71797</v>
       </c>
@@ -14276,7 +14275,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>71797</v>
       </c>
@@ -14287,7 +14286,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>71797</v>
       </c>
@@ -14298,7 +14297,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>71797</v>
       </c>
@@ -14309,7 +14308,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>71797</v>
       </c>
@@ -14320,7 +14319,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="241" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>71797</v>
       </c>
@@ -14331,7 +14330,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>71797</v>
       </c>
@@ -14342,7 +14341,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>71774</v>
       </c>
@@ -14353,7 +14352,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>71774</v>
       </c>
@@ -14364,7 +14363,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>71897</v>
       </c>
@@ -14375,7 +14374,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>71897</v>
       </c>
@@ -14386,7 +14385,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>71897</v>
       </c>
@@ -14397,7 +14396,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>71897</v>
       </c>
@@ -14408,7 +14407,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>71897</v>
       </c>
@@ -14419,7 +14418,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>71897</v>
       </c>
@@ -14430,7 +14429,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>71897</v>
       </c>
@@ -14441,7 +14440,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>71897</v>
       </c>
@@ -14452,7 +14451,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>71832</v>
       </c>
@@ -14463,7 +14462,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>71832</v>
       </c>
@@ -14474,7 +14473,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>71832</v>
       </c>
@@ -14485,7 +14484,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>71832</v>
       </c>
@@ -14496,7 +14495,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="257" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>71832</v>
       </c>
@@ -14507,7 +14506,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="258" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>71832</v>
       </c>
@@ -14518,7 +14517,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="259" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>71832</v>
       </c>
@@ -14529,7 +14528,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="260" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>71832</v>
       </c>
@@ -14540,7 +14539,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>71832</v>
       </c>
@@ -14551,7 +14550,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="262" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>71832</v>
       </c>
@@ -14562,7 +14561,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="263" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>71832</v>
       </c>
@@ -14573,7 +14572,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="264" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>71832</v>
       </c>
@@ -14584,7 +14583,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="265" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>71832</v>
       </c>
@@ -14595,7 +14594,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>71832</v>
       </c>
@@ -14606,7 +14605,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>71832</v>
       </c>
@@ -14617,7 +14616,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="268" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>71832</v>
       </c>
@@ -14628,7 +14627,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="269" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>71832</v>
       </c>
@@ -14639,7 +14638,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="270" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>71832</v>
       </c>
@@ -14650,7 +14649,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="271" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>71832</v>
       </c>
@@ -14661,7 +14660,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="272" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>71832</v>
       </c>
@@ -14672,7 +14671,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="273" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>71832</v>
       </c>
@@ -14683,7 +14682,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="274" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>71832</v>
       </c>
@@ -14694,7 +14693,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>71832</v>
       </c>
@@ -14705,7 +14704,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>71832</v>
       </c>
@@ -14716,7 +14715,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="277" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>71832</v>
       </c>
@@ -14727,7 +14726,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>71832</v>
       </c>
@@ -14738,7 +14737,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>71832</v>
       </c>
@@ -14749,7 +14748,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>71832</v>
       </c>
@@ -14760,7 +14759,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>71832</v>
       </c>
@@ -14771,7 +14770,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>71832</v>
       </c>
@@ -14782,7 +14781,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="283" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>71902</v>
       </c>
@@ -14793,7 +14792,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>71902</v>
       </c>
@@ -14804,7 +14803,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="285" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>71902</v>
       </c>
@@ -14815,7 +14814,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="286" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>71902</v>
       </c>
@@ -14826,7 +14825,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="287" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>71902</v>
       </c>
@@ -14837,7 +14836,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="288" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>71902</v>
       </c>
@@ -14848,7 +14847,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>71902</v>
       </c>
@@ -14859,7 +14858,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="290" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>71902</v>
       </c>
@@ -14870,7 +14869,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>71902</v>
       </c>
@@ -14881,7 +14880,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>71902</v>
       </c>
@@ -14892,7 +14891,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="293" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>71902</v>
       </c>
@@ -14903,7 +14902,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>71902</v>
       </c>
@@ -14914,7 +14913,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="295" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>71902</v>
       </c>
@@ -14925,7 +14924,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="296" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>71902</v>
       </c>
@@ -14936,7 +14935,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>71902</v>
       </c>
@@ -14947,7 +14946,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>71902</v>
       </c>
@@ -14958,7 +14957,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="299" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>71902</v>
       </c>
@@ -14969,7 +14968,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>71902</v>
       </c>
@@ -14980,7 +14979,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="301" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>71902</v>
       </c>
@@ -14991,7 +14990,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="302" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>71902</v>
       </c>
@@ -15002,7 +15001,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="303" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>71902</v>
       </c>
@@ -15013,7 +15012,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="304" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>71902</v>
       </c>
@@ -15024,7 +15023,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="305" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>71902</v>
       </c>
@@ -15035,7 +15034,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="306" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>71902</v>
       </c>
@@ -15046,7 +15045,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="307" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>71902</v>
       </c>
@@ -15057,7 +15056,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="308" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>71902</v>
       </c>
@@ -15068,7 +15067,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="309" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>71902</v>
       </c>
@@ -15079,7 +15078,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="310" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>71902</v>
       </c>
@@ -15090,7 +15089,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="311" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>71902</v>
       </c>
@@ -15101,7 +15100,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="312" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>71902</v>
       </c>
@@ -15112,7 +15111,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="313" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>71902</v>
       </c>
@@ -15123,7 +15122,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="314" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>71902</v>
       </c>
@@ -15134,7 +15133,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="315" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>71902</v>
       </c>
@@ -15145,7 +15144,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="316" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>71902</v>
       </c>
@@ -15156,7 +15155,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="317" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>71902</v>
       </c>
@@ -15167,7 +15166,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="318" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>71902</v>
       </c>
@@ -15178,7 +15177,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="319" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>71902</v>
       </c>
@@ -15189,7 +15188,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="320" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>71902</v>
       </c>
@@ -15200,7 +15199,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="321" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>71902</v>
       </c>
@@ -15211,7 +15210,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="322" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>71902</v>
       </c>
@@ -15222,7 +15221,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="323" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>71902</v>
       </c>
@@ -15233,7 +15232,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="324" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>71902</v>
       </c>
@@ -15244,7 +15243,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="325" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>71902</v>
       </c>
@@ -15255,7 +15254,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="326" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>71902</v>
       </c>
@@ -15266,7 +15265,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="327" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>71902</v>
       </c>
@@ -15277,7 +15276,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="328" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>71902</v>
       </c>
@@ -15288,7 +15287,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="329" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>71902</v>
       </c>
@@ -15299,7 +15298,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="330" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>71902</v>
       </c>
@@ -15310,7 +15309,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="331" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>71902</v>
       </c>
@@ -15321,7 +15320,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="332" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>71902</v>
       </c>
@@ -15332,7 +15331,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="333" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>71898</v>
       </c>
@@ -15343,7 +15342,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="334" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>71898</v>
       </c>
@@ -15354,7 +15353,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="335" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>71898</v>
       </c>
@@ -15365,7 +15364,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="336" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>71898</v>
       </c>
@@ -15376,7 +15375,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="337" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>71898</v>
       </c>
@@ -15387,7 +15386,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="338" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>71898</v>
       </c>
@@ -15398,7 +15397,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="339" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>71898</v>
       </c>
@@ -15409,7 +15408,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="340" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>71898</v>
       </c>
@@ -15420,7 +15419,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="341" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>71898</v>
       </c>
@@ -15431,7 +15430,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="342" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>71898</v>
       </c>
@@ -15442,7 +15441,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="343" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>71898</v>
       </c>
@@ -15453,7 +15452,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="344" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>71898</v>
       </c>
@@ -15464,7 +15463,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="345" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>71898</v>
       </c>
@@ -15475,7 +15474,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="346" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>71898</v>
       </c>
@@ -15486,7 +15485,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="347" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>71898</v>
       </c>
@@ -15497,7 +15496,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="348" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>71898</v>
       </c>
@@ -15508,7 +15507,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="349" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>71898</v>
       </c>
@@ -15519,7 +15518,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="350" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>71898</v>
       </c>
@@ -15530,7 +15529,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="351" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>71898</v>
       </c>
@@ -15541,7 +15540,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="352" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>71898</v>
       </c>
@@ -15552,7 +15551,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="353" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>71898</v>
       </c>
@@ -15563,7 +15562,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="354" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>71898</v>
       </c>
@@ -15574,7 +15573,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="355" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>71898</v>
       </c>
@@ -15585,7 +15584,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="356" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>71898</v>
       </c>
@@ -15596,7 +15595,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="357" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>71898</v>
       </c>
@@ -15607,7 +15606,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="358" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>71898</v>
       </c>
@@ -15618,7 +15617,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="359" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>71898</v>
       </c>
@@ -15629,7 +15628,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="360" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>71898</v>
       </c>
@@ -15640,7 +15639,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="361" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>71845</v>
       </c>
@@ -15651,7 +15650,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="362" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>71845</v>
       </c>
@@ -15662,7 +15661,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="363" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>71845</v>
       </c>
@@ -15673,7 +15672,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="364" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>71845</v>
       </c>
@@ -15684,7 +15683,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="365" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>71845</v>
       </c>
@@ -15695,7 +15694,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="366" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>71845</v>
       </c>
@@ -15706,7 +15705,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="367" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>71845</v>
       </c>
@@ -15717,7 +15716,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="368" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>71845</v>
       </c>
@@ -15728,7 +15727,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="369" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>71845</v>
       </c>
@@ -15739,7 +15738,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="370" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>71845</v>
       </c>
@@ -15750,7 +15749,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="371" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>71845</v>
       </c>
@@ -15761,7 +15760,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="372" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>71845</v>
       </c>
@@ -15772,7 +15771,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="373" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>71845</v>
       </c>
@@ -15783,7 +15782,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="374" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>71845</v>
       </c>
@@ -15794,7 +15793,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="375" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>71845</v>
       </c>
@@ -15805,7 +15804,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="376" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>71845</v>
       </c>
@@ -15816,7 +15815,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="377" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>71845</v>
       </c>
@@ -15827,7 +15826,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="378" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>71845</v>
       </c>
@@ -15838,7 +15837,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="379" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>71845</v>
       </c>
@@ -15849,7 +15848,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="380" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>71845</v>
       </c>
@@ -15860,7 +15859,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="381" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>71845</v>
       </c>
@@ -15871,7 +15870,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="382" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>71845</v>
       </c>
@@ -15882,7 +15881,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="383" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>71845</v>
       </c>
@@ -15893,7 +15892,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="384" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>71845</v>
       </c>
@@ -15904,7 +15903,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="385" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>71845</v>
       </c>
@@ -15915,7 +15914,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="386" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>71845</v>
       </c>
@@ -15926,7 +15925,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="387" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>71845</v>
       </c>
@@ -15937,7 +15936,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="388" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>71845</v>
       </c>
@@ -15948,7 +15947,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="389" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>71845</v>
       </c>
@@ -15959,7 +15958,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="390" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>71845</v>
       </c>
@@ -15970,7 +15969,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="391" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>71845</v>
       </c>
@@ -15981,7 +15980,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="392" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>71783</v>
       </c>
@@ -15992,7 +15991,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="393" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>71783</v>
       </c>
@@ -16003,7 +16002,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="394" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>71783</v>
       </c>
@@ -16014,7 +16013,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="395" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>71783</v>
       </c>
@@ -16025,7 +16024,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="396" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>71783</v>
       </c>
@@ -16036,7 +16035,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="397" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>71783</v>
       </c>
@@ -16047,7 +16046,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="398" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>71783</v>
       </c>
@@ -16058,7 +16057,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="399" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>71783</v>
       </c>
@@ -16069,7 +16068,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="400" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>71783</v>
       </c>
@@ -16080,7 +16079,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="401" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>71783</v>
       </c>
@@ -16091,7 +16090,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="402" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>71783</v>
       </c>
@@ -16102,7 +16101,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="403" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>71783</v>
       </c>
@@ -16113,7 +16112,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="404" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>71783</v>
       </c>
@@ -16124,7 +16123,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="405" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>71783</v>
       </c>
@@ -16135,7 +16134,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="406" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>71783</v>
       </c>
@@ -16146,7 +16145,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="407" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>71783</v>
       </c>
@@ -16157,7 +16156,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="408" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>71783</v>
       </c>
@@ -16168,7 +16167,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="409" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>71783</v>
       </c>
@@ -16179,7 +16178,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="410" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>71783</v>
       </c>
@@ -16190,7 +16189,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="411" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>71783</v>
       </c>
@@ -16201,7 +16200,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="412" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>71783</v>
       </c>
@@ -16212,7 +16211,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="413" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>71783</v>
       </c>
@@ -16223,7 +16222,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="414" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>71783</v>
       </c>
@@ -16234,7 +16233,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="415" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>71783</v>
       </c>
@@ -16245,7 +16244,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="416" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>71783</v>
       </c>
@@ -16256,7 +16255,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="417" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>71783</v>
       </c>
@@ -16267,7 +16266,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="418" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>71783</v>
       </c>
@@ -16278,7 +16277,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="419" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>71783</v>
       </c>
@@ -16289,7 +16288,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="420" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>71783</v>
       </c>
@@ -16300,7 +16299,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="421" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>71783</v>
       </c>
@@ -16311,7 +16310,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="422" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>71783</v>
       </c>
@@ -16322,7 +16321,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="423" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>71783</v>
       </c>
@@ -16333,7 +16332,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="424" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>71783</v>
       </c>
@@ -16344,7 +16343,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="425" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>71783</v>
       </c>
@@ -16355,7 +16354,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="426" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>71783</v>
       </c>
@@ -16366,7 +16365,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="427" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>71783</v>
       </c>
@@ -16377,7 +16376,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="428" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>71783</v>
       </c>
@@ -16388,7 +16387,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="429" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>71783</v>
       </c>
@@ -16399,7 +16398,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="430" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>71783</v>
       </c>
@@ -16410,7 +16409,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="431" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>71783</v>
       </c>
@@ -16421,7 +16420,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="432" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>71783</v>
       </c>
@@ -16432,7 +16431,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="433" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>71783</v>
       </c>
@@ -16443,7 +16442,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="434" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>71783</v>
       </c>
@@ -16454,7 +16453,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="435" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>71863</v>
       </c>
@@ -16465,7 +16464,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="436" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>71863</v>
       </c>
@@ -16476,7 +16475,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="437" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>71863</v>
       </c>
@@ -16487,7 +16486,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="438" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>71863</v>
       </c>
@@ -16498,7 +16497,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="439" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>71863</v>
       </c>
@@ -16509,7 +16508,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="440" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>71863</v>
       </c>
@@ -16520,7 +16519,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="441" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>71863</v>
       </c>
@@ -16531,7 +16530,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="442" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>71920</v>
       </c>
@@ -16542,7 +16541,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="443" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>71920</v>
       </c>
@@ -16553,7 +16552,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="444" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>71920</v>
       </c>
@@ -16564,7 +16563,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="445" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>71920</v>
       </c>
@@ -16575,7 +16574,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="446" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>71920</v>
       </c>
@@ -16586,7 +16585,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="447" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>71920</v>
       </c>
@@ -16597,7 +16596,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>71831</v>
       </c>
@@ -16608,7 +16607,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>71831</v>
       </c>
@@ -16619,7 +16618,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>71831</v>
       </c>
@@ -16630,7 +16629,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="451" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>71917</v>
       </c>
@@ -16641,7 +16640,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="452" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>71816</v>
       </c>
@@ -16652,7 +16651,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="453" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>71816</v>
       </c>
@@ -16663,7 +16662,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="454" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>71816</v>
       </c>
@@ -16674,7 +16673,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="455" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>71816</v>
       </c>
@@ -16685,7 +16684,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="456" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>71816</v>
       </c>
@@ -16696,7 +16695,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="457" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>71816</v>
       </c>
@@ -16707,7 +16706,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="458" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>71816</v>
       </c>
@@ -16718,7 +16717,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="459" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>71856</v>
       </c>
@@ -16729,7 +16728,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="460" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>71856</v>
       </c>
@@ -16740,7 +16739,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="461" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>71936</v>
       </c>
@@ -16751,7 +16750,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="462" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>71936</v>
       </c>
@@ -16762,7 +16761,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="463" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>71936</v>
       </c>
@@ -16773,7 +16772,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="464" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>71936</v>
       </c>
@@ -16784,7 +16783,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="465" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>71936</v>
       </c>
@@ -16795,7 +16794,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="466" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>71936</v>
       </c>
@@ -16806,7 +16805,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="467" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>71936</v>
       </c>
@@ -16817,7 +16816,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="468" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>71936</v>
       </c>
@@ -16828,7 +16827,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="469" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>71936</v>
       </c>
@@ -16839,7 +16838,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="470" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>71936</v>
       </c>
@@ -16850,7 +16849,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="471" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>71936</v>
       </c>
@@ -16861,7 +16860,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="472" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>71936</v>
       </c>
@@ -16872,7 +16871,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="473" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>71936</v>
       </c>
@@ -16883,7 +16882,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="474" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>71936</v>
       </c>
@@ -16894,7 +16893,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="475" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>71936</v>
       </c>
@@ -16905,7 +16904,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="476" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>71936</v>
       </c>
@@ -16916,7 +16915,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="477" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>71936</v>
       </c>
@@ -16927,7 +16926,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="478" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>71936</v>
       </c>
@@ -16938,7 +16937,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="479" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>71936</v>
       </c>
@@ -16949,7 +16948,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="480" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>71936</v>
       </c>
@@ -16960,7 +16959,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="481" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>71936</v>
       </c>
@@ -16971,7 +16970,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="482" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>71936</v>
       </c>
@@ -16982,7 +16981,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="483" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>71936</v>
       </c>
@@ -16993,7 +16992,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="484" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>71936</v>
       </c>
@@ -17004,7 +17003,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="485" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>71936</v>
       </c>
@@ -17015,7 +17014,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="486" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>71936</v>
       </c>
@@ -17026,7 +17025,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="487" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>71936</v>
       </c>
@@ -17037,7 +17036,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="488" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>71936</v>
       </c>
@@ -17048,7 +17047,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="489" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>71936</v>
       </c>
@@ -17059,7 +17058,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="490" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>71936</v>
       </c>
@@ -17070,7 +17069,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="491" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>71936</v>
       </c>
@@ -17081,7 +17080,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="492" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>71936</v>
       </c>
@@ -17092,7 +17091,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="493" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>71936</v>
       </c>
@@ -17103,7 +17102,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="494" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>71936</v>
       </c>
@@ -17114,7 +17113,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="495" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>71936</v>
       </c>
@@ -17125,7 +17124,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="496" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>71936</v>
       </c>
@@ -17136,7 +17135,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="497" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>71936</v>
       </c>
@@ -17147,7 +17146,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="498" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>71936</v>
       </c>
@@ -17158,7 +17157,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="499" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>71936</v>
       </c>
@@ -17169,7 +17168,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="500" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>71936</v>
       </c>
@@ -17180,7 +17179,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="501" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>71936</v>
       </c>
@@ -17191,7 +17190,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="502" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>71936</v>
       </c>
@@ -17202,7 +17201,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="503" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>71936</v>
       </c>
@@ -17213,7 +17212,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="504" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>71936</v>
       </c>
@@ -17224,7 +17223,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="505" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>71936</v>
       </c>
@@ -17235,7 +17234,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="506" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>71936</v>
       </c>
@@ -17246,7 +17245,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="507" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>71776</v>
       </c>
@@ -17257,7 +17256,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="508" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>71815</v>
       </c>
@@ -17268,7 +17267,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="509" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>71815</v>
       </c>
@@ -17279,7 +17278,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="510" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>71815</v>
       </c>
@@ -17290,7 +17289,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="511" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>71846</v>
       </c>
@@ -17301,7 +17300,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="512" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>71846</v>
       </c>
@@ -17312,7 +17311,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="513" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>71846</v>
       </c>
@@ -17323,7 +17322,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="514" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>71846</v>
       </c>
@@ -17334,7 +17333,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="515" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>71780</v>
       </c>
@@ -17345,7 +17344,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="516" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>71780</v>
       </c>
@@ -17356,7 +17355,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="517" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>71780</v>
       </c>
@@ -17367,7 +17366,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="518" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>71780</v>
       </c>
@@ -17378,7 +17377,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="519" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>71780</v>
       </c>
@@ -17389,7 +17388,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="520" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>71780</v>
       </c>
@@ -17400,7 +17399,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="521" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>71780</v>
       </c>
@@ -17411,7 +17410,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="522" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>71780</v>
       </c>
@@ -17422,7 +17421,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="523" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>71780</v>
       </c>
@@ -17433,7 +17432,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="524" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>71780</v>
       </c>
@@ -17444,7 +17443,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="525" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>71780</v>
       </c>
@@ -17455,7 +17454,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="526" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>71780</v>
       </c>
@@ -17466,7 +17465,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="527" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>71780</v>
       </c>
@@ -17477,7 +17476,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="528" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>71780</v>
       </c>
@@ -17488,7 +17487,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="529" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>71780</v>
       </c>
@@ -17499,7 +17498,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="530" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>71780</v>
       </c>
@@ -17510,7 +17509,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="531" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>71780</v>
       </c>
@@ -17521,7 +17520,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="532" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>71780</v>
       </c>
@@ -17532,7 +17531,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="533" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>71780</v>
       </c>
@@ -17543,7 +17542,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="534" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>71780</v>
       </c>
@@ -17554,7 +17553,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="535" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>71780</v>
       </c>
@@ -17565,7 +17564,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="536" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>71780</v>
       </c>
@@ -17576,7 +17575,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="537" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>71780</v>
       </c>
@@ -17587,7 +17586,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="538" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>71780</v>
       </c>
@@ -17598,7 +17597,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="539" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>71780</v>
       </c>
@@ -17609,7 +17608,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="540" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>71780</v>
       </c>
@@ -17620,7 +17619,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="541" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>71780</v>
       </c>
@@ -17631,7 +17630,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="542" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>71780</v>
       </c>
@@ -17642,7 +17641,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="543" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>71780</v>
       </c>
@@ -17659,20 +17658,6 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B559E6B1-AA5F-435B-BC14-A206979FA2ED}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
